--- a/CASUAL/LA DSWD-CCR/MERCADO, RENGIE MENDOZA.xlsx
+++ b/CASUAL/LA DSWD-CCR/MERCADO, RENGIE MENDOZA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA DSWD-CCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA DSWD-CCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF358703-0B4A-4080-A0D9-23BEB1A2D63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3965F3-6DE5-4DAA-9745-E577DDB8D952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>12/21,22,27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -716,17 +725,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -736,6 +742,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2670,7 +2679,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K116" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K118" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
@@ -3047,12 +3056,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K116"/>
+  <dimension ref="A2:K118"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85:C86"/>
+      <selection pane="bottomLeft" activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3082,14 +3091,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3100,14 +3109,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3120,16 +3129,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3155,18 +3164,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3213,7 +3222,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>63.75</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3223,7 +3232,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>88.75</v>
+        <v>90</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4788,27 +4797,37 @@
       <c r="A87" s="40">
         <v>45261</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
+      <c r="B87" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D87" s="39">
+        <v>4</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B88" s="20"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C88" s="13"/>
-      <c r="D88" s="39"/>
+      <c r="D88" s="39">
+        <v>1</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13" t="str">
@@ -4818,11 +4837,13 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="49">
+        <v>45274</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40">
-        <v>45323</v>
+      <c r="A89" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4840,7 +4861,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>45352</v>
+        <v>45322</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4858,7 +4879,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4876,7 +4897,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4894,7 +4915,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4912,7 +4933,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4930,7 +4951,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4948,7 +4969,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4966,7 +4987,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4984,7 +5005,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5001,7 +5022,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45566</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5017,7 +5040,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45597</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5273,34 +5298,66 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="41"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="43"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="39"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="42" t="str">
+      <c r="F116" s="20"/>
+      <c r="G116" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H116" s="43"/>
+      <c r="H116" s="39"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="15"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="20"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="39"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="20"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="41"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="43"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5335,7 +5392,7 @@
   </sheetPr>
   <dimension ref="A2:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
@@ -5368,14 +5425,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5386,14 +5443,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5406,16 +5463,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5441,18 +5498,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -7520,7 +7577,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>152.5</v>
+        <v>150</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
